--- a/bacteria_archaea/marine/POC_prokaroytes/poc_data.xlsx
+++ b/bacteria_archaea/marine/POC_prokaroytes/poc_data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="100">
   <si>
     <t xml:space="preserve">Location</t>
   </si>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">Volume of cells [µm^3]</t>
   </si>
   <si>
-    <t xml:space="preserve">Carcon content [fg C]</t>
+    <t xml:space="preserve">Carbon content [fg C]</t>
   </si>
   <si>
     <t xml:space="preserve">Cells on aggregates concentration [cells mL^-1]</t>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t xml:space="preserve">Passow &amp; Alldredge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.jstor.org/stable/24849588</t>
   </si>
 </sst>
 </file>
@@ -1156,12 +1159,13 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1275510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
@@ -2171,8 +2175,8 @@
   </sheetPr>
   <dimension ref="A2:F62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F59" activeCellId="0" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3174,7 +3178,7 @@
         <v>98</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3191,7 +3195,7 @@
         <v>98</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,7 +3212,7 @@
         <v>98</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,7 +3229,7 @@
         <v>98</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,7 +3246,7 @@
         <v>98</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,7 +3263,7 @@
         <v>98</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3276,7 +3280,7 @@
         <v>98</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,7 +3297,7 @@
         <v>98</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3314,7 @@
         <v>98</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,7 +3331,7 @@
         <v>98</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,7 +3348,7 @@
         <v>98</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,7 +3365,7 @@
         <v>98</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/bacteria_archaea/marine/POC_prokaroytes/poc_data.xlsx
+++ b/bacteria_archaea/marine/POC_prokaroytes/poc_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Macroaggregates" sheetId="1" state="visible" r:id="rId2"/>
@@ -360,59 +360,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8826530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3877551020408"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="0"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">1900000*AVERAGE(0.25,0.85)/1000</f>
+        <v>1045</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">AVERAGE(0.25,0.85)</f>
+        <v>0.55</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,24 +448,24 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F3" s="1" t="n">
-        <f aca="false">1900000*AVERAGE(0.25,0.85)/1000</f>
-        <v>1045</v>
+        <f aca="false">4700000*AVERAGE(0.65,0.2)/1000</f>
+        <v>1997.5</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="0" t="n">
-        <f aca="false">AVERAGE(0.25,0.85)</f>
-        <v>0.55</v>
+        <f aca="false">AVERAGE(0.65,0.2)</f>
+        <v>0.425</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
@@ -446,7 +474,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,24 +482,24 @@
         <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F4" s="1" t="n">
-        <f aca="false">4700000*AVERAGE(0.65,0.2)/1000</f>
-        <v>1997.5</v>
+        <f aca="false">2200000*AVERAGE(0.5,0.59,0.41)/1000</f>
+        <v>1100</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="0" t="n">
-        <f aca="false">AVERAGE(0.65,0.2)</f>
-        <v>0.425</v>
+        <f aca="false">AVERAGE(0.5,0.59,0.41)</f>
+        <v>0.5</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>13</v>
@@ -488,24 +516,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.002</v>
+        <f aca="false">GEOMEAN(0.007,0.012,0.022,0.008,0.006)</f>
+        <v>0.00976312030412124</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="F5" s="1" t="n">
-        <f aca="false">2200000*AVERAGE(0.5,0.59,0.41)/1000</f>
-        <v>1100</v>
+        <f aca="false">5800000*AVERAGE(0.89,1,1,1.2,1.1,1.65)/1000</f>
+        <v>6612</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="0" t="n">
-        <f aca="false">AVERAGE(0.5,0.59,0.41)</f>
-        <v>0.5</v>
+        <f aca="false">AVERAGE(0.89,1,1,1.2,1.1,1.65)</f>
+        <v>1.14</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
@@ -519,52 +548,38 @@
     </row>
     <row r="6" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="n">
-        <f aca="false">GEOMEAN(0.007,0.012,0.022,0.008,0.006)</f>
-        <v>0.00976312030412124</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.16</v>
+        <v>0.028</v>
       </c>
       <c r="F6" s="1" t="n">
-        <f aca="false">5800000*AVERAGE(0.89,1,1,1.2,1.1,1.65)/1000</f>
-        <v>6612</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <f aca="false">AVERAGE(0.89,1,1,1.2,1.1,1.65)</f>
-        <v>1.14</v>
+        <f aca="false">10600</f>
+        <v>10600</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>40</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.028</v>
+        <v>0.024</v>
       </c>
       <c r="F7" s="1" t="n">
-        <f aca="false">10600</f>
-        <v>10600</v>
+        <f aca="false">5300</f>
+        <v>5300</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>18</v>
@@ -573,19 +588,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.024</v>
+        <v>0.049</v>
       </c>
       <c r="F8" s="1" t="n">
-        <f aca="false">5300</f>
-        <v>5300</v>
+        <f aca="false">5500</f>
+        <v>5500</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>18</v>
@@ -594,19 +609,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.049</v>
+        <v>0.022</v>
       </c>
       <c r="F9" s="1" t="n">
-        <f aca="false">5500</f>
-        <v>5500</v>
+        <f aca="false">14900</f>
+        <v>14900</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>600</v>
+        <v>40</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>18</v>
@@ -615,19 +630,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.022</v>
+        <v>0.045</v>
       </c>
       <c r="F10" s="1" t="n">
-        <f aca="false">14900</f>
-        <v>14900</v>
+        <f aca="false">3400</f>
+        <v>3400</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>18</v>
@@ -636,19 +651,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.045</v>
+        <v>0.028</v>
       </c>
       <c r="F11" s="1" t="n">
-        <f aca="false">3400</f>
-        <v>3400</v>
+        <f aca="false">36400</f>
+        <v>36400</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>450</v>
+        <v>40</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>18</v>
@@ -657,19 +672,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.028</v>
+        <v>0.012</v>
       </c>
       <c r="F12" s="1" t="n">
-        <f aca="false">36400</f>
-        <v>36400</v>
+        <f aca="false">4800</f>
+        <v>4800</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>18</v>
@@ -678,19 +693,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.012</v>
+        <v>0.009</v>
       </c>
       <c r="F13" s="1" t="n">
-        <f aca="false">4800</f>
-        <v>4800</v>
+        <f aca="false">1200</f>
+        <v>1200</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>18</v>
@@ -699,19 +714,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="F14" s="1" t="n">
-        <f aca="false">1200</f>
-        <v>1200</v>
+        <f aca="false">9700</f>
+        <v>9700</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>18</v>
@@ -720,7 +735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>17</v>
       </c>
@@ -728,8 +743,8 @@
         <v>0.01</v>
       </c>
       <c r="F15" s="1" t="n">
-        <f aca="false">9700</f>
-        <v>9700</v>
+        <f aca="false">7900</f>
+        <v>7900</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>70</v>
@@ -741,19 +756,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="F16" s="1" t="n">
-        <f aca="false">7900</f>
-        <v>7900</v>
+        <f aca="false">1700</f>
+        <v>1700</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>18</v>
@@ -762,19 +777,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="F17" s="1" t="n">
-        <f aca="false">1700</f>
-        <v>1700</v>
+        <f aca="false">5700</f>
+        <v>5700</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>18</v>
@@ -785,41 +800,50 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <f aca="false">5700</f>
-        <v>5700</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>18</v>
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F19" s="0"/>
+        <v>0.013</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <f aca="false">3200000/1000</f>
+        <v>3200</v>
+      </c>
       <c r="G19" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1.9</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.013</v>
+        <v>0.009</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>5.6</v>
@@ -836,14 +860,14 @@
         <v>1.02</v>
       </c>
       <c r="F20" s="1" t="n">
-        <f aca="false">3200000/1000</f>
-        <v>3200</v>
+        <f aca="false">1800000/1000</f>
+        <v>1800</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>26</v>
@@ -857,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.009</v>
+        <v>0.028</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>5.6</v>
@@ -866,14 +890,14 @@
         <v>1.02</v>
       </c>
       <c r="F21" s="1" t="n">
-        <f aca="false">1800000/1000</f>
-        <v>1800</v>
+        <f aca="false">6000000/1000</f>
+        <v>6000</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>26</v>
@@ -887,7 +911,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>5.6</v>
@@ -896,14 +920,14 @@
         <v>1.02</v>
       </c>
       <c r="F22" s="1" t="n">
-        <f aca="false">6000000/1000</f>
-        <v>6000</v>
+        <f aca="false">5500000/1000</f>
+        <v>5500</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>26</v>
@@ -913,27 +937,24 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>24</v>
+      <c r="A23" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>5.6</v>
+        <v>0.002</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="F23" s="1" t="n">
-        <f aca="false">5500000/1000</f>
-        <v>5500</v>
+        <f aca="false">1800000/1000</f>
+        <v>1800</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>26</v>
@@ -947,14 +968,14 @@
         <v>28</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.002</v>
+        <v>0.023</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0.83</v>
       </c>
       <c r="F24" s="1" t="n">
-        <f aca="false">1800000/1000</f>
-        <v>1800</v>
+        <f aca="false">6800000/1000</f>
+        <v>6800</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>25</v>
@@ -974,14 +995,14 @@
         <v>28</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.023</v>
+        <v>0.028</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>0.83</v>
       </c>
       <c r="F25" s="1" t="n">
-        <f aca="false">6800000/1000</f>
-        <v>6800</v>
+        <f aca="false">15000000/1000</f>
+        <v>15000</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>25</v>
@@ -1001,20 +1022,20 @@
         <v>28</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.028</v>
+        <v>0.001</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0.83</v>
       </c>
       <c r="F26" s="1" t="n">
-        <f aca="false">15000000/1000</f>
-        <v>15000</v>
+        <f aca="false">700000/1000</f>
+        <v>700</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>26</v>
@@ -1028,14 +1049,14 @@
         <v>28</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.001</v>
+        <v>0.044</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0.83</v>
       </c>
       <c r="F27" s="1" t="n">
-        <f aca="false">700000/1000</f>
-        <v>700</v>
+        <f aca="false">28000000/1000</f>
+        <v>28000</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>25</v>
@@ -1055,14 +1076,14 @@
         <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.044</v>
+        <v>0.009</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0.83</v>
       </c>
       <c r="F28" s="1" t="n">
-        <f aca="false">28000000/1000</f>
-        <v>28000</v>
+        <f aca="false">8900000/1000</f>
+        <v>8900</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>25</v>
@@ -1082,44 +1103,48 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F29" s="1" t="n">
-        <f aca="false">8900000/1000</f>
-        <v>8900</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="F29" s="0"/>
       <c r="G29" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0.1</v>
+        <v>29</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F30" s="0"/>
+      <c r="A30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">E30/23</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <f aca="false">1.05*410000/1000</f>
+        <v>430.5</v>
+      </c>
       <c r="G30" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1.05</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,21 +1152,21 @@
         <v>24</v>
       </c>
       <c r="C31" s="0" t="n">
-        <f aca="false">E31/23</f>
-        <v>2</v>
+        <f aca="false">E31/31</f>
+        <v>1.93548387096774</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F31" s="1" t="n">
-        <f aca="false">1.05*410000/1000</f>
-        <v>430.5</v>
+        <f aca="false">1.65*700000/1000</f>
+        <v>1155</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>33</v>
@@ -1158,21 +1183,21 @@
         <v>24</v>
       </c>
       <c r="C32" s="0" t="n">
-        <f aca="false">E32/31</f>
-        <v>1.93548387096774</v>
+        <f aca="false">E32/17</f>
+        <v>3.23529411764706</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F32" s="1" t="n">
-        <f aca="false">1.65*700000/1000</f>
-        <v>1155</v>
+        <f aca="false">0.85*1700</f>
+        <v>1445</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1.65</v>
+        <v>0.85</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>33</v>
@@ -1189,21 +1214,21 @@
         <v>24</v>
       </c>
       <c r="C33" s="0" t="n">
-        <f aca="false">E33/17</f>
-        <v>3.23529411764706</v>
+        <f aca="false">E33/20</f>
+        <v>2.45</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F33" s="1" t="n">
-        <f aca="false">0.85*1700</f>
-        <v>1445</v>
+        <f aca="false">0.5*900</f>
+        <v>450</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>33</v>
@@ -1221,20 +1246,20 @@
       </c>
       <c r="C34" s="0" t="n">
         <f aca="false">E34/20</f>
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F34" s="1" t="n">
-        <f aca="false">0.5*900</f>
-        <v>450</v>
+        <f aca="false">0.59*420</f>
+        <v>247.8</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>33</v>
@@ -1251,21 +1276,21 @@
         <v>24</v>
       </c>
       <c r="C35" s="0" t="n">
-        <f aca="false">E35/20</f>
-        <v>2</v>
+        <f aca="false">E35/19</f>
+        <v>3.68421052631579</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F35" s="1" t="n">
-        <f aca="false">0.59*420</f>
-        <v>247.8</v>
+        <f aca="false">0.41*790</f>
+        <v>323.9</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>33</v>
@@ -1279,24 +1304,24 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C36" s="0" t="n">
-        <f aca="false">E36/19</f>
-        <v>3.68421052631579</v>
+        <f aca="false">E36/26</f>
+        <v>1.84615384615385</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1" t="n">
-        <f aca="false">0.41*790</f>
-        <v>323.9</v>
+        <f aca="false">0.52*580</f>
+        <v>301.6</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>33</v>
@@ -1313,21 +1338,21 @@
         <v>36</v>
       </c>
       <c r="C37" s="0" t="n">
-        <f aca="false">E37/26</f>
-        <v>1.84615384615385</v>
+        <f aca="false">E37/22</f>
+        <v>2.59090909090909</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F37" s="1" t="n">
-        <f aca="false">0.52*580</f>
-        <v>301.6</v>
+        <f aca="false">0.2*60</f>
+        <v>12</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>32</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.52</v>
+        <v>0.2</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>33</v>
@@ -1341,33 +1366,30 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <f aca="false">E38/22</f>
-        <v>2.59090909090909</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>57</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">0.0000759/570000000*1000000000000000/560</f>
+        <v>0.237781954887218</v>
       </c>
       <c r="F38" s="1" t="n">
-        <f aca="false">0.2*60</f>
-        <v>12</v>
+        <f aca="false">10^4</f>
+        <v>10000</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.2</v>
+        <v>38</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,8 +1400,8 @@
         <v>0.02</v>
       </c>
       <c r="D39" s="0" t="n">
-        <f aca="false">0.0000759/570000000*1000000000000000/560</f>
-        <v>0.237781954887218</v>
+        <f aca="false">0.0004049/2950000000*1000000000000000/560</f>
+        <v>0.245096852300242</v>
       </c>
       <c r="F39" s="1" t="n">
         <f aca="false">10^4</f>
@@ -1406,8 +1428,8 @@
         <v>0.02</v>
       </c>
       <c r="D40" s="0" t="n">
-        <f aca="false">0.0004049/2950000000*1000000000000000/560</f>
-        <v>0.245096852300242</v>
+        <f aca="false">0.0002977/1970000000*1000000000000000/560</f>
+        <v>0.269851341551849</v>
       </c>
       <c r="F40" s="1" t="n">
         <f aca="false">10^4</f>
@@ -1434,8 +1456,8 @@
         <v>0.02</v>
       </c>
       <c r="D41" s="0" t="n">
-        <f aca="false">0.0002977/1970000000*1000000000000000/560</f>
-        <v>0.269851341551849</v>
+        <f aca="false">0.0000286/190000000*1000000000000000/560</f>
+        <v>0.268796992481203</v>
       </c>
       <c r="F41" s="1" t="n">
         <f aca="false">10^4</f>
@@ -1462,8 +1484,8 @@
         <v>0.02</v>
       </c>
       <c r="D42" s="0" t="n">
-        <f aca="false">0.0000286/190000000*1000000000000000/560</f>
-        <v>0.268796992481203</v>
+        <f aca="false">0.0000688/560000000*1000000000000000/560</f>
+        <v>0.219387755102041</v>
       </c>
       <c r="F42" s="1" t="n">
         <f aca="false">10^4</f>
@@ -1490,8 +1512,8 @@
         <v>0.02</v>
       </c>
       <c r="D43" s="0" t="n">
-        <f aca="false">0.0000688/560000000*1000000000000000/560</f>
-        <v>0.219387755102041</v>
+        <f aca="false">0.0001374/1070000000*1000000000000000/560</f>
+        <v>0.229305740987984</v>
       </c>
       <c r="F43" s="1" t="n">
         <f aca="false">10^4</f>
@@ -1518,8 +1540,8 @@
         <v>0.02</v>
       </c>
       <c r="D44" s="0" t="n">
-        <f aca="false">0.0001374/1070000000*1000000000000000/560</f>
-        <v>0.229305740987984</v>
+        <f aca="false">0.0006853/6460000000*1000000000000000/560</f>
+        <v>0.189434984520124</v>
       </c>
       <c r="F44" s="1" t="n">
         <f aca="false">10^4</f>
@@ -1540,30 +1562,19 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <f aca="false">0.0006853/6460000000*1000000000000000/560</f>
-        <v>0.189434984520124</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <f aca="false">10^4</f>
-        <v>10000</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>38</v>
+        <v>0.003</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,10 +1582,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.003</v>
+        <v>0.024</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>43</v>
@@ -1583,38 +1594,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D47" s="0" t="n">
         <f aca="false">AVERAGE(0.061,0.079)</f>
         <v>0.07</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G47" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J48" s="0" t="s">
+      <c r="I47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" s="0" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1634,35 +1628,52 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F62"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.0214847331488773</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,7 +1681,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>53</v>
@@ -1690,7 +1701,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>53</v>
@@ -1710,13 +1721,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.0214847331488773</v>
+        <v>0.0101676413019943</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>54</v>
@@ -1730,13 +1741,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.0101676413019943</v>
+        <v>0.0214847331488773</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>54</v>
@@ -1750,13 +1761,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.0214847331488773</v>
+        <v>0.00967296389599162</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>54</v>
@@ -1770,13 +1781,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.00967296389599162</v>
+        <v>0.0204394551195804</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>54</v>
@@ -1790,13 +1801,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.0204394551195804</v>
+        <v>0.0207821048064104</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>54</v>
@@ -1810,13 +1821,13 @@
         <v>52</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.0207821048064104</v>
+        <v>0.063305878998707</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>54</v>
@@ -1830,13 +1841,13 @@
         <v>52</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.063305878998707</v>
+        <v>0.0612355481958507</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>54</v>
@@ -1850,13 +1861,13 @@
         <v>52</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.0612355481958507</v>
+        <v>0.0211304987172033</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>54</v>
@@ -1869,14 +1880,14 @@
       <c r="A13" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>2000</v>
+      <c r="B13" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.0211304987172033</v>
+        <v>0.183458528659805</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>54</v>
@@ -1889,14 +1900,14 @@
       <c r="A14" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>56</v>
+      <c r="B14" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.183458528659805</v>
+        <v>0.00983088447399483</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>54</v>
@@ -1910,13 +1921,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.00983088447399483</v>
+        <v>0.0101720247312971</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>54</v>
@@ -1930,13 +1941,13 @@
         <v>52</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.0101720247312971</v>
+        <v>0.01</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>54</v>
@@ -1950,13 +1961,13 @@
         <v>52</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.01</v>
+        <v>0.00983088447399483</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>54</v>
@@ -1970,13 +1981,13 @@
         <v>52</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.00983088447399483</v>
+        <v>0.01</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>54</v>
@@ -1990,13 +2001,13 @@
         <v>52</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.01</v>
+        <v>0.0101720247312971</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>54</v>
@@ -2010,13 +2021,13 @@
         <v>52</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.0101720247312971</v>
+        <v>0.01</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>54</v>
@@ -2030,13 +2041,13 @@
         <v>52</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.01</v>
+        <v>0.0201235086020726</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>54</v>
@@ -2050,13 +2061,13 @@
         <v>52</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.0201235086020726</v>
+        <v>0.00983088447399483</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>54</v>
@@ -2070,13 +2081,13 @@
         <v>52</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.00983088447399483</v>
+        <v>0.0398107170553497</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>54</v>
@@ -2090,13 +2101,13 @@
         <v>52</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.0398107170553497</v>
+        <v>0.00983088447399483</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>54</v>
@@ -2109,14 +2120,14 @@
       <c r="A25" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>2000</v>
+      <c r="B25" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.00983088447399483</v>
+        <v>0.0579379284316132</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>54</v>
@@ -2129,14 +2140,14 @@
       <c r="A26" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>56</v>
+      <c r="B26" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.0579379284316132</v>
+        <v>0.0211214265475097</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>54</v>
@@ -2150,13 +2161,13 @@
         <v>52</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.0211214265475097</v>
+        <v>0.0207655373307857</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>54</v>
@@ -2170,13 +2181,13 @@
         <v>52</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.0207655373307857</v>
+        <v>0.0822487206339584</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>54</v>
@@ -2190,13 +2201,13 @@
         <v>52</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.0822487206339584</v>
+        <v>0.0218516076885397</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>54</v>
@@ -2210,13 +2221,13 @@
         <v>52</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.0218516076885397</v>
+        <v>0.0101713845450059</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>54</v>
@@ -2230,13 +2241,13 @@
         <v>52</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.0101713845450059</v>
+        <v>0.01</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>54</v>
@@ -2250,13 +2261,13 @@
         <v>52</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.01</v>
+        <v>0.0218516076885397</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>54</v>
@@ -2270,13 +2281,13 @@
         <v>52</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.0218516076885397</v>
+        <v>0.0101713845450059</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>54</v>
@@ -2290,13 +2301,13 @@
         <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.0101713845450059</v>
+        <v>0.0211214265475097</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>54</v>
@@ -2310,13 +2321,13 @@
         <v>52</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.0211214265475097</v>
+        <v>0.0431207540636252</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>54</v>
@@ -2330,13 +2341,13 @@
         <v>52</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.0431207540636252</v>
+        <v>0.020071647711385</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>54</v>
@@ -2349,14 +2360,14 @@
       <c r="A37" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>2000</v>
+      <c r="B37" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.020071647711385</v>
+        <v>0.216667293282911</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>54</v>
@@ -2369,14 +2380,14 @@
       <c r="A38" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>56</v>
+      <c r="B38" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.216667293282911</v>
+        <v>0.01</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>54</v>
@@ -2390,13 +2401,13 @@
         <v>52</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.01</v>
+        <v>0.0197831888278417</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>54</v>
@@ -2410,13 +2421,13 @@
         <v>52</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.0197831888278417</v>
+        <v>0.0496931235886474</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>54</v>
@@ -2430,13 +2441,13 @@
         <v>52</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.0496931235886474</v>
+        <v>0.0204696827180752</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>54</v>
@@ -2450,13 +2461,13 @@
         <v>52</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.0204696827180752</v>
+        <v>0.01</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>54</v>
@@ -2470,13 +2481,13 @@
         <v>52</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.01</v>
+        <v>0.00966462895410325</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>54</v>
@@ -2490,13 +2501,13 @@
         <v>52</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.00966462895410325</v>
+        <v>0.0201235086020726</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>54</v>
@@ -2510,13 +2521,13 @@
         <v>52</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.0201235086020726</v>
+        <v>0.00983088447399483</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>54</v>
@@ -2530,13 +2541,13 @@
         <v>52</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.00983088447399483</v>
+        <v>0.0197831888278417</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>54</v>
@@ -2550,7 +2561,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>59</v>
@@ -2570,13 +2581,13 @@
         <v>52</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.0197831888278417</v>
+        <v>0.0391374560198038</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>54</v>
@@ -2589,14 +2600,14 @@
       <c r="A49" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>2000</v>
+      <c r="B49" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.0391374560198038</v>
+        <v>0.0384755808736745</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>54</v>
@@ -2607,22 +2618,19 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.0384755808736745</v>
+        <v>0.00302635245412203</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,7 +2641,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>0.00302635245412203</v>
+        <v>0.00393595000199037</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>61</v>
@@ -2650,7 +2658,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>0.00393595000199037</v>
+        <v>0.0129632578320927</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>61</v>
@@ -2667,7 +2675,7 @@
         <v>10</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>0.0129632578320927</v>
+        <v>0.113022968830859</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>61</v>
@@ -2684,7 +2692,7 @@
         <v>10</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>0.113022968830859</v>
+        <v>0.0323136021655189</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>61</v>
@@ -2701,7 +2709,7 @@
         <v>10</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>0.0323136021655189</v>
+        <v>0.0504717168902512</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>61</v>
@@ -2718,7 +2726,7 @@
         <v>10</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>0.0504717168902512</v>
+        <v>0.0625472712073564</v>
       </c>
       <c r="E56" s="0" t="s">
         <v>61</v>
@@ -2735,7 +2743,7 @@
         <v>10</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>0.0625472712073564</v>
+        <v>0.103903108952669</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>61</v>
@@ -2752,7 +2760,7 @@
         <v>10</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>0.103903108952669</v>
+        <v>0.116012499502408</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>61</v>
@@ -2769,7 +2777,7 @@
         <v>10</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>0.116012499502408</v>
+        <v>0.175497591656383</v>
       </c>
       <c r="E59" s="0" t="s">
         <v>61</v>
@@ -2786,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>0.175497591656383</v>
+        <v>0.205726284781657</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>61</v>
@@ -2803,29 +2811,12 @@
         <v>10</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.205726284781657</v>
+        <v>0.155482464870029</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>61</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>0.155482464870029</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="0" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2847,13 +2838,13 @@
   </sheetPr>
   <dimension ref="A1:E425"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A217" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D231" activeCellId="0" sqref="D231"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
